--- a/output/StructureDefinition-NatlDirAttest-Practitioner.xlsx
+++ b/output/StructureDefinition-NatlDirAttest-Practitioner.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$83</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2873" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2941" uniqueCount="603">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-14T12:56:11-05:00</t>
+    <t>2022-04-19T13:14:50-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -602,10 +602,40 @@
     <t>Practitioner.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>rating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/rating}
+</t>
+  </si>
+  <si>
+    <t>Rating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>qualification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/qualification}
+</t>
+  </si>
+  <si>
+    <t>Qualification</t>
+  </si>
+  <si>
+    <t>An extension to add qualifications for an organization (e.g. accreditation) or practitionerRole (e.g. registered to prescribe controlled substances).</t>
   </si>
   <si>
     <t>Practitioner.modifierExtension</t>
@@ -1127,7 +1157,7 @@
     <t>contactpoint-availabletime</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/contactpoint-availabletime}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/contactpoint-availabletime}
 </t>
   </si>
   <si>
@@ -1140,14 +1170,14 @@
     <t>via-intermediary</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/via-intermediary}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/via-intermediary}
 </t>
   </si>
   <si>
     <t>Via Intermediary</t>
   </si>
   <si>
-    <t>A reference to an alternative point of contact (NatlDir-PractitionerRole, NatlDir-Organization, NatlDir-OrganizationAffiliation, or NatlDir-Location) for this organization</t>
+    <t>A reference to an alternative point of contact (NatlDirEndpointQry-PractitionerRole, NatlDirEndpointQry-Organization, NatlDirEndpointQry-OrganizationAffiliation, or NatlDirEndpointQry-Location) for this organization</t>
   </si>
   <si>
     <t>Practitioner.telecom.system</t>
@@ -1681,16 +1711,10 @@
     <t>Practitioner.qualification.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
     <t>practitioner-qualification</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/practitioner-qualification}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/practitioner-qualification}
 </t>
   </si>
   <si>
@@ -1698,10 +1722,6 @@
   </si>
   <si>
     <t>An extension to add status and whereValid elements to a practitioner’s qualifications.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
   </si>
   <si>
     <t>Practitioner.qualification.modifierExtension</t>
@@ -1745,7 +1765,7 @@
     <t>Coded representation of the qualification.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-exchange/ValueSet/IndividualSpecialtyAndDegreeLicenseCertificateVS</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-query/ValueSet/IndividualSpecialtyAndDegreeLicenseCertificateVS</t>
   </si>
   <si>
     <t>./Qualifications.Value</t>
@@ -1814,7 +1834,7 @@
     <t>communication-proficiency</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/communication-proficiency}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/communication-proficiency}
 </t>
   </si>
   <si>
@@ -2189,7 +2209,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM81"/>
+  <dimension ref="A1:AM83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2222,7 +2242,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.7734375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="96.54296875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="93.23828125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
@@ -4023,7 +4043,7 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -4045,14 +4065,12 @@
         <v>107</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>108</v>
+        <v>188</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>79</v>
@@ -4089,19 +4107,17 @@
         <v>79</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="AB17" s="2"/>
       <c r="AC17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>77</v>
@@ -4119,7 +4135,7 @@
         <v>79</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>186</v>
+        <v>79</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>79</v>
@@ -4130,11 +4146,13 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="B18" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>191</v>
+      </c>
       <c r="C18" t="s" s="2">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -4147,26 +4165,22 @@
         <v>79</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>107</v>
+        <v>192</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N18" t="s" s="2">
         <v>193</v>
       </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>79</v>
       </c>
@@ -4214,7 +4228,7 @@
         <v>79</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
@@ -4223,7 +4237,7 @@
         <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>79</v>
+        <v>194</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>115</v>
@@ -4232,7 +4246,7 @@
         <v>79</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>186</v>
+        <v>79</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>79</v>
@@ -4243,27 +4257,29 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>196</v>
@@ -4274,12 +4290,8 @@
       <c r="L19" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="M19" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>200</v>
-      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>79</v>
       </c>
@@ -4315,17 +4327,19 @@
         <v>79</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="AB19" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
@@ -4334,59 +4348,63 @@
         <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>79</v>
+        <v>194</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>202</v>
+        <v>79</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>203</v>
+        <v>79</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>204</v>
+        <v>79</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>205</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>101</v>
+        <v>200</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="O20" t="s" s="2">
         <v>79</v>
       </c>
@@ -4434,25 +4452,25 @@
         <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>103</v>
+        <v>203</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>104</v>
+        <v>186</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>79</v>
@@ -4463,41 +4481,43 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>107</v>
+        <v>205</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>108</v>
+        <v>206</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>109</v>
+        <v>207</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="O21" t="s" s="2">
         <v>79</v>
       </c>
@@ -4533,11 +4553,9 @@
         <v>79</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="AB21" s="2"/>
       <c r="AC21" t="s" s="2">
         <v>79</v>
       </c>
@@ -4545,7 +4563,7 @@
         <v>113</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>114</v>
+        <v>204</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -4557,24 +4575,24 @@
         <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>79</v>
+        <v>211</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>104</v>
+        <v>212</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>79</v>
+        <v>213</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>79</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4591,26 +4609,22 @@
         <v>79</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>163</v>
+        <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>209</v>
+        <v>101</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>79</v>
       </c>
@@ -4634,13 +4648,13 @@
         <v>79</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>213</v>
+        <v>79</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>214</v>
+        <v>79</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>215</v>
+        <v>79</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>79</v>
@@ -4658,7 +4672,7 @@
         <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>216</v>
+        <v>103</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -4670,13 +4684,13 @@
         <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>186</v>
+        <v>79</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>217</v>
+        <v>104</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>79</v>
@@ -4685,45 +4699,43 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>219</v>
+        <v>107</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>220</v>
+        <v>108</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>221</v>
+        <v>109</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>79</v>
       </c>
@@ -4747,60 +4759,60 @@
         <v>79</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>224</v>
+        <v>79</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>225</v>
+        <v>79</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="AC23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>226</v>
+        <v>114</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>227</v>
+        <v>79</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM23" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" hidden="true">
+      <c r="A24" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4808,34 +4820,34 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H24" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>129</v>
+        <v>163</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>79</v>
@@ -4848,7 +4860,7 @@
         <v>79</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>233</v>
+        <v>79</v>
       </c>
       <c r="T24" t="s" s="2">
         <v>79</v>
@@ -4860,13 +4872,13 @@
         <v>79</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>79</v>
+        <v>222</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>79</v>
+        <v>223</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>79</v>
+        <v>224</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>79</v>
@@ -4884,7 +4896,7 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -4899,21 +4911,21 @@
         <v>99</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>235</v>
+        <v>186</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>237</v>
+        <v>79</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4921,13 +4933,13 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>79</v>
@@ -4936,18 +4948,20 @@
         <v>88</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>89</v>
+        <v>228</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>79</v>
       </c>
@@ -4959,7 +4973,7 @@
         <v>79</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>242</v>
+        <v>79</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>79</v>
@@ -4971,13 +4985,13 @@
         <v>79</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>79</v>
+        <v>234</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>79</v>
@@ -4995,7 +5009,7 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -5010,21 +5024,21 @@
         <v>99</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>246</v>
+        <v>79</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5032,13 +5046,13 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>79</v>
@@ -5047,16 +5061,20 @@
         <v>88</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>248</v>
+        <v>129</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
+        <v>239</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>79</v>
       </c>
@@ -5068,7 +5086,7 @@
         <v>79</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>79</v>
+        <v>242</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>79</v>
@@ -5104,7 +5122,7 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -5119,21 +5137,21 @@
         <v>99</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5141,13 +5159,13 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>79</v>
@@ -5156,16 +5174,16 @@
         <v>88</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>256</v>
+        <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -5179,7 +5197,7 @@
         <v>79</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>79</v>
+        <v>251</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>79</v>
@@ -5215,7 +5233,7 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -5230,25 +5248,23 @@
         <v>99</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>264</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
         <v>79</v>
       </c>
@@ -5260,7 +5276,7 @@
         <v>87</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>79</v>
@@ -5269,18 +5285,16 @@
         <v>88</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>196</v>
+        <v>257</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>197</v>
+        <v>258</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>198</v>
+        <v>259</v>
       </c>
       <c r="M28" s="2"/>
-      <c r="N28" t="s" s="2">
-        <v>200</v>
-      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>79</v>
       </c>
@@ -5289,7 +5303,7 @@
         <v>79</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>265</v>
+        <v>79</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>79</v>
@@ -5328,13 +5342,13 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>195</v>
+        <v>260</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>79</v>
@@ -5343,21 +5357,21 @@
         <v>99</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>202</v>
+        <v>261</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>203</v>
+        <v>262</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>204</v>
+        <v>263</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>205</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5365,7 +5379,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>87</v>
@@ -5380,70 +5394,66 @@
         <v>88</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="N29" s="2"/>
+      <c r="O29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P29" s="2"/>
+      <c r="Q29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE29" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P29" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="Q29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R29" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="S29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5458,32 +5468,34 @@
         <v>99</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>79</v>
+        <v>270</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>79</v>
+        <v>272</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>275</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="B30" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>273</v>
+      </c>
       <c r="C30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F30" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="F30" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>88</v>
@@ -5495,19 +5507,17 @@
         <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>277</v>
+        <v>205</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>278</v>
+        <v>206</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>280</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>281</v>
+        <v>209</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>79</v>
@@ -5517,7 +5527,7 @@
         <v>79</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>79</v>
+        <v>274</v>
       </c>
       <c r="S30" t="s" s="2">
         <v>79</v>
@@ -5556,7 +5566,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>276</v>
+        <v>204</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5571,21 +5581,21 @@
         <v>99</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>282</v>
+        <v>211</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>283</v>
+        <v>212</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>284</v>
+        <v>213</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>79</v>
+        <v>214</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5593,7 +5603,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>87</v>
@@ -5605,28 +5615,34 @@
         <v>79</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>89</v>
+        <v>276</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>101</v>
+        <v>277</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P31" s="2"/>
+      <c r="P31" t="s" s="2">
+        <v>281</v>
+      </c>
       <c r="Q31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>79</v>
+        <v>282</v>
       </c>
       <c r="S31" t="s" s="2">
         <v>79</v>
@@ -5665,7 +5681,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>103</v>
+        <v>275</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5677,58 +5693,60 @@
         <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>104</v>
+        <v>283</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>79</v>
+        <v>284</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>107</v>
+        <v>286</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>108</v>
+        <v>287</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>109</v>
+        <v>288</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>290</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>79</v>
       </c>
@@ -5764,19 +5782,19 @@
         <v>79</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="AC32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>114</v>
+        <v>285</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5788,16 +5806,16 @@
         <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>79</v>
+        <v>291</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>104</v>
+        <v>292</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>79</v>
+        <v>293</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5805,7 +5823,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5822,26 +5840,22 @@
         <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>163</v>
+        <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>288</v>
+        <v>101</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>291</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>79</v>
       </c>
@@ -5865,13 +5879,13 @@
         <v>79</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>213</v>
+        <v>79</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>292</v>
+        <v>79</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>293</v>
+        <v>79</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>79</v>
@@ -5889,7 +5903,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>294</v>
+        <v>103</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -5901,60 +5915,58 @@
         <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM33" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" hidden="true">
+      <c r="A34" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>299</v>
+        <v>108</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>300</v>
+        <v>109</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>302</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>79</v>
       </c>
@@ -5990,37 +6002,37 @@
         <v>79</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="AC34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>303</v>
+        <v>114</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>304</v>
+        <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>305</v>
+        <v>104</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>79</v>
@@ -6029,43 +6041,45 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>307</v>
+        <v>79</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H35" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>299</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>300</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>79</v>
       </c>
@@ -6089,13 +6103,13 @@
         <v>79</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>79</v>
+        <v>222</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>79</v>
+        <v>301</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>79</v>
+        <v>302</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>79</v>
@@ -6113,7 +6127,7 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -6128,13 +6142,13 @@
         <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -6142,18 +6156,18 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>316</v>
+        <v>79</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>88</v>
@@ -6168,15 +6182,17 @@
         <v>89</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>79</v>
       </c>
@@ -6224,13 +6240,13 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>79</v>
@@ -6239,35 +6255,35 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>323</v>
+        <v>79</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>79</v>
+        <v>316</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>79</v>
@@ -6279,12 +6295,14 @@
         <v>89</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>319</v>
+      </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>79</v>
@@ -6333,13 +6351,13 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>79</v>
@@ -6348,13 +6366,13 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>79</v>
@@ -6362,11 +6380,11 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>79</v>
+        <v>325</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6388,12 +6406,14 @@
         <v>89</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="M38" s="2"/>
+        <v>327</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>328</v>
+      </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>79</v>
@@ -6442,7 +6462,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6457,13 +6477,13 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>79</v>
+        <v>332</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
@@ -6471,7 +6491,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6482,7 +6502,7 @@
         <v>77</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>79</v>
@@ -6494,18 +6514,16 @@
         <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>248</v>
+        <v>89</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="M39" s="2"/>
-      <c r="N39" t="s" s="2">
-        <v>340</v>
-      </c>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>79</v>
       </c>
@@ -6553,13 +6571,13 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>79</v>
@@ -6568,21 +6586,21 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>254</v>
+        <v>339</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6596,7 +6614,7 @@
         <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>79</v>
@@ -6605,20 +6623,16 @@
         <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>345</v>
+        <v>89</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>349</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>79</v>
       </c>
@@ -6666,7 +6680,7 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -6681,13 +6695,13 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>352</v>
+        <v>79</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>79</v>
@@ -6695,7 +6709,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6715,19 +6729,21 @@
         <v>79</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>89</v>
+        <v>257</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>101</v>
+        <v>347</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>102</v>
+        <v>348</v>
       </c>
       <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
+      <c r="N41" t="s" s="2">
+        <v>349</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>79</v>
       </c>
@@ -6775,7 +6791,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>103</v>
+        <v>350</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -6787,16 +6803,16 @@
         <v>79</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>79</v>
+        <v>351</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>104</v>
+        <v>352</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>79</v>
+        <v>263</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>79</v>
@@ -6804,11 +6820,11 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6824,21 +6840,23 @@
         <v>79</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>107</v>
+        <v>354</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>108</v>
+        <v>355</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>109</v>
+        <v>356</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>357</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>79</v>
       </c>
@@ -6874,19 +6892,19 @@
         <v>79</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="AC42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>114</v>
+        <v>353</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -6898,16 +6916,16 @@
         <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>79</v>
+        <v>359</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>104</v>
+        <v>360</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>79</v>
+        <v>361</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>79</v>
@@ -6915,11 +6933,9 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>355</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
         <v>79</v>
       </c>
@@ -6928,7 +6944,7 @@
         <v>77</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>79</v>
@@ -6940,13 +6956,13 @@
         <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>356</v>
+        <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>357</v>
+        <v>101</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>358</v>
+        <v>102</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6997,25 +7013,25 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>79</v>
@@ -7026,13 +7042,11 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>359</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -7051,15 +7065,17 @@
         <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>360</v>
+        <v>107</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>361</v>
+        <v>108</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>79</v>
@@ -7096,16 +7112,16 @@
         <v>79</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="AC44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="AE44" t="s" s="2">
         <v>114</v>
@@ -7126,7 +7142,7 @@
         <v>79</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>79</v>
@@ -7139,7 +7155,9 @@
       <c r="A45" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="B45" s="2"/>
+      <c r="B45" t="s" s="2">
+        <v>364</v>
+      </c>
       <c r="C45" t="s" s="2">
         <v>79</v>
       </c>
@@ -7148,7 +7166,7 @@
         <v>77</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>79</v>
@@ -7157,16 +7175,16 @@
         <v>79</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>163</v>
+        <v>365</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -7193,13 +7211,13 @@
         <v>79</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>213</v>
+        <v>79</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>366</v>
+        <v>79</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>367</v>
+        <v>79</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>79</v>
@@ -7217,28 +7235,28 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>368</v>
+        <v>114</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>369</v>
+        <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>370</v>
+        <v>79</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>371</v>
+        <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>372</v>
+        <v>79</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>79</v>
@@ -7246,9 +7264,11 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="B46" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>368</v>
+      </c>
       <c r="C46" t="s" s="2">
         <v>79</v>
       </c>
@@ -7257,7 +7277,7 @@
         <v>77</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>79</v>
@@ -7266,23 +7286,19 @@
         <v>79</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>89</v>
+        <v>369</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>377</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>79</v>
       </c>
@@ -7330,28 +7346,28 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>378</v>
+        <v>114</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>379</v>
+        <v>79</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>380</v>
+        <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>246</v>
+        <v>79</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>79</v>
@@ -7359,7 +7375,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7376,7 +7392,7 @@
         <v>79</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>88</v>
@@ -7385,17 +7401,13 @@
         <v>163</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>385</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>79</v>
       </c>
@@ -7419,13 +7431,13 @@
         <v>79</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>79</v>
@@ -7443,7 +7455,7 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7452,19 +7464,19 @@
         <v>87</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>79</v>
+        <v>378</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>296</v>
+        <v>380</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>79</v>
@@ -7472,7 +7484,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7495,18 +7507,20 @@
         <v>88</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>392</v>
+        <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>385</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>386</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>79</v>
       </c>
@@ -7554,7 +7568,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7569,13 +7583,13 @@
         <v>99</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>104</v>
+        <v>388</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>104</v>
+        <v>389</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>79</v>
+        <v>255</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7583,7 +7597,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7600,22 +7614,26 @@
         <v>79</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>248</v>
+        <v>163</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
+        <v>392</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>79</v>
       </c>
@@ -7639,13 +7657,13 @@
         <v>79</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>79</v>
+        <v>222</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>79</v>
+        <v>395</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>79</v>
+        <v>396</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>79</v>
@@ -7663,7 +7681,7 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7678,21 +7696,21 @@
         <v>99</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>186</v>
+        <v>398</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>343</v>
+        <v>305</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>254</v>
+        <v>399</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7703,10 +7721,10 @@
         <v>77</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>79</v>
@@ -7715,20 +7733,18 @@
         <v>88</v>
       </c>
       <c r="J50" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="K50" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="K50" t="s" s="2">
+      <c r="L50" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="M50" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>406</v>
-      </c>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>79</v>
       </c>
@@ -7776,13 +7792,13 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>79</v>
@@ -7791,13 +7807,13 @@
         <v>99</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>407</v>
+        <v>104</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>408</v>
+        <v>104</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>409</v>
+        <v>79</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
@@ -7805,7 +7821,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7825,16 +7841,16 @@
         <v>79</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>89</v>
+        <v>257</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>101</v>
+        <v>407</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>102</v>
+        <v>408</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7885,7 +7901,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>103</v>
+        <v>409</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -7897,16 +7913,16 @@
         <v>79</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>79</v>
+        <v>186</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>104</v>
+        <v>352</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>79</v>
+        <v>263</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
@@ -7914,11 +7930,11 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7934,21 +7950,23 @@
         <v>79</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>107</v>
+        <v>411</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>108</v>
+        <v>412</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>109</v>
+        <v>413</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>414</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>415</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>79</v>
       </c>
@@ -7984,19 +8002,19 @@
         <v>79</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="AC52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>114</v>
+        <v>410</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8008,28 +8026,26 @@
         <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>79</v>
+        <v>416</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>104</v>
+        <v>417</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>79</v>
+        <v>418</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>412</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
         <v>79</v>
       </c>
@@ -8041,7 +8057,7 @@
         <v>87</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>79</v>
@@ -8050,17 +8066,15 @@
         <v>79</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>413</v>
+        <v>89</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>414</v>
+        <v>101</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>416</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>79</v>
@@ -8109,25 +8123,25 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>79</v>
@@ -8138,43 +8152,41 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>418</v>
+        <v>108</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>419</v>
+        <v>109</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>421</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>79</v>
       </c>
@@ -8186,7 +8198,7 @@
         <v>79</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>422</v>
+        <v>79</v>
       </c>
       <c r="T54" t="s" s="2">
         <v>79</v>
@@ -8198,52 +8210,52 @@
         <v>79</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>213</v>
+        <v>79</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>423</v>
+        <v>79</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>424</v>
+        <v>79</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="AC54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>425</v>
+        <v>114</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>426</v>
+        <v>79</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>296</v>
+        <v>104</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>427</v>
+        <v>79</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>79</v>
@@ -8251,9 +8263,11 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="B55" s="2"/>
+        <v>420</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>421</v>
+      </c>
       <c r="C55" t="s" s="2">
         <v>79</v>
       </c>
@@ -8271,19 +8285,19 @@
         <v>79</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>163</v>
+        <v>422</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8297,7 +8311,7 @@
         <v>79</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>432</v>
+        <v>79</v>
       </c>
       <c r="T55" t="s" s="2">
         <v>79</v>
@@ -8309,13 +8323,13 @@
         <v>79</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>213</v>
+        <v>79</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>433</v>
+        <v>79</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>434</v>
+        <v>79</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>79</v>
@@ -8333,25 +8347,25 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>435</v>
+        <v>114</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>436</v>
+        <v>79</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>296</v>
+        <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>79</v>
@@ -8362,7 +8376,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8379,25 +8393,25 @@
         <v>79</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>302</v>
+        <v>430</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>79</v>
@@ -8410,7 +8424,7 @@
         <v>79</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="T56" t="s" s="2">
         <v>79</v>
@@ -8422,13 +8436,13 @@
         <v>79</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>79</v>
+        <v>222</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>79</v>
+        <v>432</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>79</v>
+        <v>433</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>79</v>
@@ -8446,7 +8460,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8461,13 +8475,13 @@
         <v>99</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>305</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>79</v>
+        <v>436</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>79</v>
@@ -8475,7 +8489,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8486,7 +8500,7 @@
         <v>77</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>79</v>
@@ -8498,15 +8512,17 @@
         <v>88</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="M57" s="2"/>
+        <v>439</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>440</v>
+      </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>79</v>
@@ -8519,7 +8535,7 @@
         <v>79</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="T57" t="s" s="2">
         <v>79</v>
@@ -8531,13 +8547,13 @@
         <v>79</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>79</v>
+        <v>222</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>79</v>
+        <v>442</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>79</v>
+        <v>443</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>79</v>
@@ -8555,13 +8571,13 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>79</v>
@@ -8570,13 +8586,13 @@
         <v>99</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>450</v>
+        <v>305</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>451</v>
+        <v>79</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>79</v>
@@ -8584,11 +8600,11 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>453</v>
+        <v>79</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8610,13 +8626,17 @@
         <v>89</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
+        <v>448</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>79</v>
       </c>
@@ -8628,7 +8648,7 @@
         <v>79</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="T58" t="s" s="2">
         <v>79</v>
@@ -8664,7 +8684,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8679,13 +8699,13 @@
         <v>99</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>459</v>
+        <v>314</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>460</v>
+        <v>79</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>79</v>
@@ -8693,18 +8713,18 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>462</v>
+        <v>79</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>79</v>
@@ -8719,14 +8739,12 @@
         <v>89</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>465</v>
-      </c>
+        <v>455</v>
+      </c>
+      <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>79</v>
@@ -8739,7 +8757,7 @@
         <v>79</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="T59" t="s" s="2">
         <v>79</v>
@@ -8775,13 +8793,13 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>79</v>
@@ -8790,13 +8808,13 @@
         <v>99</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>79</v>
+        <v>460</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>79</v>
@@ -8804,11 +8822,11 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8830,10 +8848,10 @@
         <v>89</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8848,7 +8866,7 @@
         <v>79</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>79</v>
+        <v>465</v>
       </c>
       <c r="T60" t="s" s="2">
         <v>79</v>
@@ -8884,7 +8902,7 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -8899,13 +8917,13 @@
         <v>99</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>79</v>
@@ -8913,11 +8931,11 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8939,12 +8957,14 @@
         <v>89</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="M61" s="2"/>
+        <v>473</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>474</v>
+      </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>79</v>
@@ -8957,7 +8977,7 @@
         <v>79</v>
       </c>
       <c r="S61" t="s" s="2">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="T61" t="s" s="2">
         <v>79</v>
@@ -8993,7 +9013,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -9008,13 +9028,13 @@
         <v>99</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>486</v>
+        <v>79</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>79</v>
@@ -9022,11 +9042,11 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>79</v>
+        <v>480</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -9048,14 +9068,12 @@
         <v>89</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>490</v>
-      </c>
+        <v>482</v>
+      </c>
+      <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>79</v>
@@ -9104,7 +9122,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9119,13 +9137,13 @@
         <v>99</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>79</v>
@@ -9133,11 +9151,11 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>79</v>
+        <v>488</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9156,18 +9174,16 @@
         <v>88</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>248</v>
+        <v>89</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="M63" s="2"/>
-      <c r="N63" t="s" s="2">
-        <v>498</v>
-      </c>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>79</v>
       </c>
@@ -9179,7 +9195,7 @@
         <v>79</v>
       </c>
       <c r="S63" t="s" s="2">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="T63" t="s" s="2">
         <v>79</v>
@@ -9215,7 +9231,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9230,13 +9246,13 @@
         <v>99</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>343</v>
+        <v>494</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>254</v>
+        <v>495</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>79</v>
@@ -9244,7 +9260,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9267,18 +9283,18 @@
         <v>88</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>163</v>
+        <v>89</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="M64" s="2"/>
-      <c r="N64" t="s" s="2">
-        <v>505</v>
-      </c>
+        <v>498</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>79</v>
       </c>
@@ -9302,13 +9318,13 @@
         <v>79</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>213</v>
+        <v>79</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>506</v>
+        <v>79</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>507</v>
+        <v>79</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>79</v>
@@ -9326,7 +9342,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9341,13 +9357,13 @@
         <v>99</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
@@ -9355,7 +9371,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9378,17 +9394,17 @@
         <v>88</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>512</v>
+        <v>257</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>79</v>
@@ -9401,7 +9417,7 @@
         <v>79</v>
       </c>
       <c r="S65" t="s" s="2">
-        <v>79</v>
+        <v>508</v>
       </c>
       <c r="T65" t="s" s="2">
         <v>79</v>
@@ -9437,7 +9453,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9452,13 +9468,13 @@
         <v>99</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>517</v>
+        <v>352</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>518</v>
+        <v>263</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
@@ -9466,7 +9482,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9477,7 +9493,7 @@
         <v>77</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>79</v>
@@ -9486,20 +9502,20 @@
         <v>79</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>520</v>
+        <v>163</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" t="s" s="2">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>79</v>
@@ -9524,13 +9540,13 @@
         <v>79</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>79</v>
+        <v>222</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>79</v>
+        <v>515</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>79</v>
+        <v>516</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>79</v>
@@ -9548,13 +9564,13 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>79</v>
@@ -9563,21 +9579,21 @@
         <v>99</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>79</v>
+        <v>517</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9588,28 +9604,30 @@
         <v>77</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I67" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J67" t="s" s="2">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
+      <c r="N67" t="s" s="2">
+        <v>524</v>
+      </c>
       <c r="O67" t="s" s="2">
         <v>79</v>
       </c>
@@ -9657,13 +9675,13 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>79</v>
@@ -9672,13 +9690,13 @@
         <v>99</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>79</v>
@@ -9686,7 +9704,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9697,7 +9715,7 @@
         <v>77</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>79</v>
@@ -9709,16 +9727,18 @@
         <v>79</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>89</v>
+        <v>529</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>101</v>
+        <v>530</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>102</v>
+        <v>531</v>
       </c>
       <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
+      <c r="N68" t="s" s="2">
+        <v>532</v>
+      </c>
       <c r="O68" t="s" s="2">
         <v>79</v>
       </c>
@@ -9766,36 +9786,36 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>103</v>
+        <v>528</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>104</v>
+        <v>533</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>79</v>
+        <v>534</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="69" hidden="true">
+    <row r="69">
       <c r="A69" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9809,7 +9829,7 @@
         <v>78</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>79</v>
@@ -9818,13 +9838,13 @@
         <v>79</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>107</v>
+        <v>536</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -9863,17 +9883,19 @@
         <v>79</v>
       </c>
       <c r="AA69" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AB69" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD69" t="s" s="2">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>114</v>
+        <v>535</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -9885,28 +9907,26 @@
         <v>79</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>79</v>
+        <v>539</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>79</v>
+        <v>540</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>79</v>
+        <v>541</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>537</v>
-      </c>
+        <v>542</v>
+      </c>
+      <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
         <v>79</v>
       </c>
@@ -9918,7 +9938,7 @@
         <v>87</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>79</v>
@@ -9927,13 +9947,13 @@
         <v>79</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>538</v>
+        <v>89</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>539</v>
+        <v>101</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>540</v>
+        <v>102</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9984,25 +10004,25 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>541</v>
+        <v>79</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>79</v>
@@ -10013,11 +10033,11 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>543</v>
+        <v>79</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -10030,26 +10050,22 @@
         <v>79</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J71" t="s" s="2">
         <v>107</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>544</v>
+        <v>188</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>193</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>79</v>
       </c>
@@ -10085,19 +10101,17 @@
         <v>79</v>
       </c>
       <c r="AA71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="AB71" s="2"/>
       <c r="AC71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD71" t="s" s="2">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>546</v>
+        <v>114</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -10115,7 +10129,7 @@
         <v>79</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>186</v>
+        <v>79</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>79</v>
@@ -10124,11 +10138,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="B72" s="2"/>
+        <v>543</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>544</v>
+      </c>
       <c r="C72" t="s" s="2">
         <v>79</v>
       </c>
@@ -10137,10 +10153,10 @@
         <v>77</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>79</v>
@@ -10149,18 +10165,16 @@
         <v>79</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>196</v>
+        <v>545</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="M72" s="2"/>
-      <c r="N72" t="s" s="2">
-        <v>550</v>
-      </c>
+      <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>79</v>
       </c>
@@ -10208,7 +10222,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>547</v>
+        <v>114</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10217,16 +10231,16 @@
         <v>78</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>79</v>
+        <v>194</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>551</v>
+        <v>79</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>79</v>
@@ -10235,41 +10249,45 @@
         <v>79</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>79</v>
+        <v>549</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H73" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H73" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="I73" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>219</v>
+        <v>107</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="M73" s="2"/>
-      <c r="N73" s="2"/>
+        <v>551</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="O73" t="s" s="2">
         <v>79</v>
       </c>
@@ -10293,11 +10311,13 @@
         <v>79</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="X73" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y73" t="s" s="2">
-        <v>555</v>
+        <v>79</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>79</v>
@@ -10318,33 +10338,33 @@
         <v>552</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>531</v>
+        <v>186</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>556</v>
+        <v>79</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10355,10 +10375,10 @@
         <v>77</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>79</v>
@@ -10367,17 +10387,17 @@
         <v>79</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>248</v>
+        <v>205</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" t="s" s="2">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>79</v>
@@ -10426,13 +10446,13 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>79</v>
@@ -10444,18 +10464,18 @@
         <v>79</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>562</v>
+        <v>79</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10463,13 +10483,13 @@
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F75" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>79</v>
@@ -10478,13 +10498,13 @@
         <v>79</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>256</v>
+        <v>228</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10511,13 +10531,11 @@
         <v>79</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="X75" s="2"/>
       <c r="Y75" t="s" s="2">
-        <v>79</v>
+        <v>561</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>79</v>
@@ -10535,10 +10553,10 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>87</v>
@@ -10553,18 +10571,18 @@
         <v>79</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>566</v>
+        <v>540</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>79</v>
+        <v>562</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10575,10 +10593,10 @@
         <v>77</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>79</v>
@@ -10587,19 +10605,17 @@
         <v>79</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>219</v>
+        <v>257</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>570</v>
-      </c>
+        <v>565</v>
+      </c>
+      <c r="M76" s="2"/>
       <c r="N76" t="s" s="2">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>79</v>
@@ -10624,13 +10640,13 @@
         <v>79</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>168</v>
+        <v>79</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>169</v>
+        <v>79</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>79</v>
@@ -10648,13 +10664,13 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>79</v>
@@ -10663,21 +10679,21 @@
         <v>99</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>572</v>
+        <v>79</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="77" hidden="true">
+    <row r="77">
       <c r="A77" t="s" s="2">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10691,7 +10707,7 @@
         <v>87</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>79</v>
@@ -10700,13 +10716,13 @@
         <v>79</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>89</v>
+        <v>265</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>101</v>
+        <v>570</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>102</v>
+        <v>571</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -10757,7 +10773,7 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>103</v>
+        <v>569</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -10769,13 +10785,13 @@
         <v>79</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>104</v>
+        <v>572</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>79</v>
@@ -10786,11 +10802,11 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -10809,18 +10825,20 @@
         <v>79</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>107</v>
+        <v>228</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>108</v>
+        <v>574</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>109</v>
+        <v>575</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N78" s="2"/>
+        <v>576</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>577</v>
+      </c>
       <c r="O78" t="s" s="2">
         <v>79</v>
       </c>
@@ -10844,31 +10862,31 @@
         <v>79</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>79</v>
+        <v>168</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA78" t="s" s="2">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="AB78" t="s" s="2">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="AC78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD78" t="s" s="2">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>114</v>
+        <v>573</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -10880,28 +10898,26 @@
         <v>79</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>79</v>
+        <v>578</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>104</v>
+        <v>579</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>79</v>
+        <v>580</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="B79" t="s" s="2">
-        <v>577</v>
-      </c>
+        <v>581</v>
+      </c>
+      <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
         <v>79</v>
       </c>
@@ -10913,7 +10929,7 @@
         <v>87</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>79</v>
@@ -10922,13 +10938,13 @@
         <v>79</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>578</v>
+        <v>89</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>579</v>
+        <v>101</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>580</v>
+        <v>102</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -10979,25 +10995,25 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>79</v>
@@ -11008,11 +11024,11 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -11028,23 +11044,21 @@
         <v>79</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>582</v>
+        <v>108</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>583</v>
+        <v>109</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>585</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>79</v>
       </c>
@@ -11080,19 +11094,19 @@
         <v>79</v>
       </c>
       <c r="AA80" t="s" s="2">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="AB80" t="s" s="2">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="AC80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD80" t="s" s="2">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>586</v>
+        <v>114</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -11104,13 +11118,13 @@
         <v>79</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>587</v>
+        <v>79</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>588</v>
+        <v>104</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>79</v>
@@ -11121,9 +11135,11 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="B81" s="2"/>
+        <v>582</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>583</v>
+      </c>
       <c r="C81" t="s" s="2">
         <v>79</v>
       </c>
@@ -11141,23 +11157,19 @@
         <v>79</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>89</v>
+        <v>584</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>593</v>
-      </c>
+        <v>586</v>
+      </c>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>79</v>
       </c>
@@ -11205,35 +11217,261 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" hidden="true">
+      <c r="A82" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P82" s="2"/>
+      <c r="Q82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="AK82" t="s" s="2">
         <v>594</v>
       </c>
-      <c r="AF81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG81" t="s" s="2">
+      <c r="AL82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F83" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="AH81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI81" t="s" s="2">
+      <c r="G83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P83" s="2"/>
+      <c r="Q83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI83" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ81" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM81" t="s" s="2">
+      <c r="AJ83" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM83" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM81">
+  <autoFilter ref="A1:AM83">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11243,7 +11481,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI80">
+  <conditionalFormatting sqref="A2:AI82">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/StructureDefinition-NatlDirAttest-Practitioner.xlsx
+++ b/output/StructureDefinition-NatlDirAttest-Practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-22T21:32:28-05:00</t>
+    <t>2022-04-24T12:38:40-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirAttest-Practitioner.xlsx
+++ b/output/StructureDefinition-NatlDirAttest-Practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T12:38:40-05:00</t>
+    <t>2022-04-25T03:17:22-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirAttest-Practitioner.xlsx
+++ b/output/StructureDefinition-NatlDirAttest-Practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-25T03:17:22-05:00</t>
+    <t>2022-04-25T04:33:18-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirAttest-Practitioner.xlsx
+++ b/output/StructureDefinition-NatlDirAttest-Practitioner.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.0.1</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-25T04:33:18-05:00</t>
+    <t>2022-04-25T04:38:22-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirAttest-Practitioner.xlsx
+++ b/output/StructureDefinition-NatlDirAttest-Practitioner.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-25T04:38:22-05:00</t>
+    <t>2022-05-01T20:03:30-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirAttest-Practitioner.xlsx
+++ b/output/StructureDefinition-NatlDirAttest-Practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-01T20:03:30-05:00</t>
+    <t>2022-05-01T20:29:13-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirAttest-Practitioner.xlsx
+++ b/output/StructureDefinition-NatlDirAttest-Practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-01T20:29:13-05:00</t>
+    <t>2022-05-04T12:20:47-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirAttest-Practitioner.xlsx
+++ b/output/StructureDefinition-NatlDirAttest-Practitioner.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.2</t>
+    <t>0.1.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-04T12:20:47-05:00</t>
+    <t>2022-06-03T13:24:40-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirAttest-Practitioner.xlsx
+++ b/output/StructureDefinition-NatlDirAttest-Practitioner.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.4</t>
+    <t>0.1.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-03T13:24:40-05:00</t>
+    <t>2022-06-15T12:17:27-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirAttest-Practitioner.xlsx
+++ b/output/StructureDefinition-NatlDirAttest-Practitioner.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.6</t>
+    <t>0.1.7</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-15T12:17:27-04:00</t>
+    <t>2022-07-10T21:26:18-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirAttest-Practitioner.xlsx
+++ b/output/StructureDefinition-NatlDirAttest-Practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-10T21:26:18-05:00</t>
+    <t>2022-07-15T12:22:10-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2218,45 +2218,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.5703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="25.5859375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="40.1015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="25.546875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.90234375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="80.8515625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="80.796875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="95.39453125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="93.58203125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.08984375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="95.77734375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="93.2421875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.3046875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.87890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="103.671875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="99.8984375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="50.25" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="102.75390625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="99.69140625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="51.21484375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/output/StructureDefinition-NatlDirAttest-Practitioner.xlsx
+++ b/output/StructureDefinition-NatlDirAttest-Practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-15T12:22:10-04:00</t>
+    <t>2022-07-15T15:24:32-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
